--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F8" s="3">
         <v>13200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -757,11 +764,11 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -775,23 +782,29 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,23 +832,29 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F10" s="3">
         <v>9500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,70 +1002,82 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1046,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,67 +1123,75 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F17" s="3">
         <v>38300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>25300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>16100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-36000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,26 +1201,32 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,14 +1254,14 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1204,11 +1271,11 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1222,23 +1289,29 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-34400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1248,26 +1321,32 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,105 +1354,117 @@
         <v>2500</v>
       </c>
       <c r="E22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-16400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-14500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1381,14 +1472,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-10500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-16400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-37600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-16400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,15 +1721,15 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,14 +1854,14 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1732,11 +1871,11 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-37600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-16400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-37600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-16400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,81 +2138,89 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>109900</v>
+      </c>
+      <c r="F41" s="3">
         <v>39100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>54400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>93200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>105200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>43600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>49600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F42" s="3">
         <v>34900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>69600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>79300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,25 +2234,31 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2082,54 +2267,60 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>72600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F44" s="3">
         <v>10000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>11500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>152200</v>
+      </c>
+      <c r="F46" s="3">
         <v>95200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>115800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>139100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>94300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>106100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>44600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>50100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>72800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2257,52 +2466,58 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>72000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>68600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2319,25 +2534,31 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F49" s="3">
         <v>81100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>80400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>80000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>77300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>77300</v>
       </c>
       <c r="I49" s="3">
         <v>77300</v>
@@ -2354,17 +2575,23 @@
       <c r="M49" s="3">
         <v>77300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="O49" s="3">
+        <v>77300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>214200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>240400</v>
+      </c>
+      <c r="F54" s="3">
         <v>182700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>202800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>220900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>171800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>183400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>121900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>127400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>152200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>151000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>146100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,63 +2878,71 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2690,201 +2957,231 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>211300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>72000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>68600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F59" s="3">
         <v>19800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F60" s="3">
         <v>26000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>23100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>212700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>73200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>69400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>91500</v>
+      </c>
+      <c r="F61" s="3">
         <v>90900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>90300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>89700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>16900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>16800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>16500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>134900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>122400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45100</v>
+      </c>
+      <c r="F62" s="3">
         <v>48800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>48200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>46500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>65300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>66200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>63800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>55600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>21300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>21300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F66" s="3">
         <v>165600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>161600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>145600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>87500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>88400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>84000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>227800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>229500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>213100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-213100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-198600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-171600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-134000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-123000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-110600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-98800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-82300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-75500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-78500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-73100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F76" s="3">
         <v>17000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>75400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>84400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>95000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>37900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>52000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-75500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-78500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-67000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-37600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-16400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,26 +4023,28 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3655,16 +4052,16 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-25100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-33200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,37 +4539,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F94" s="3">
         <v>34400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-80000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>60400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>67400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>51800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F102" s="3">
         <v>8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-38800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>61600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>49600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,8 +774,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -788,26 +792,29 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,26 +845,29 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="3">
         <v>6300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2700</v>
       </c>
       <c r="Q12" s="3">
         <v>2700</v>
       </c>
       <c r="R12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-9900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,20 +1090,20 @@
         <v>1700</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
         <v>1500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1097,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,76 +1151,80 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E17" s="3">
         <v>27900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>38300</v>
       </c>
       <c r="G17" s="3">
         <v>38300</v>
       </c>
       <c r="H17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I17" s="3">
         <v>25300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1207,26 +1237,29 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1260,11 +1294,11 @@
         <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1277,8 +1311,8 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1295,26 +1329,29 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1327,26 +1364,29 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,114 +1400,120 @@
         <v>2500</v>
       </c>
       <c r="G22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1478,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-10500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1860,11 +1930,11 @@
         <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1877,8 +1947,8 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,49 +2226,50 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E41" s="3">
         <v>34700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>93200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>105200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2190,29 +2277,32 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E42" s="3">
         <v>65000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>69600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>79300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2222,8 +2312,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2240,28 +2330,31 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2273,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>72600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2290,29 +2383,32 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E44" s="3">
         <v>12500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E46" s="3">
         <v>126100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>152200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>115800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>139100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>94300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>106100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2472,55 +2577,58 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>72000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>68600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2540,28 +2648,31 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E49" s="3">
         <v>80400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>77300</v>
       </c>
       <c r="J49" s="3">
         <v>77300</v>
@@ -2581,8 +2692,8 @@
       <c r="O49" s="3">
         <v>77300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>77300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,32 +2807,35 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -2723,25 +2843,28 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E54" s="3">
         <v>214200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>240400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>183400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>152200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2963,216 +3097,228 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>211300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>72000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>68600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E60" s="3">
         <v>22600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>212700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>69400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E61" s="3">
         <v>92100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>91500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>90900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>90300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>134900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>122400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E62" s="3">
         <v>36900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>66200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>21300</v>
       </c>
       <c r="O62" s="3">
         <v>21300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>21300</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E66" s="3">
         <v>151500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>165600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>145600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>87500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>88400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>227800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>229500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>213100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-232800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-213100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-171600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-110600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-82300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-73100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E76" s="3">
         <v>62600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>95000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-75500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-78500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-67000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,20 +4233,20 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4058,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,28 +4615,29 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,40 +4772,43 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>34400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-80000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>60400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>67400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>51800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-75200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>70800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-38800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E8" s="3">
         <v>7800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -777,8 +781,8 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -795,29 +799,32 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,29 +855,32 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2700</v>
       </c>
       <c r="R12" s="3">
         <v>2700</v>
       </c>
       <c r="S12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-9900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,20 +1116,20 @@
         <v>1700</v>
       </c>
       <c r="F15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1123,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,82 +1178,86 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E17" s="3">
         <v>26700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>38300</v>
       </c>
       <c r="H17" s="3">
         <v>38300</v>
       </c>
       <c r="I17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J17" s="3">
         <v>25300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1240,26 +1270,29 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
@@ -1297,11 +1331,11 @@
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1314,8 +1348,8 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1332,29 +1366,32 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-34400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1367,31 +1404,34 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
         <v>2500</v>
@@ -1403,96 +1443,102 @@
         <v>2500</v>
       </c>
       <c r="H22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,23 +1546,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1527,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-10500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
@@ -1933,11 +2003,11 @@
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,8 +2020,8 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,52 +2313,53 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E41" s="3">
         <v>29800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>109900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>93200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
@@ -2280,32 +2367,35 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E42" s="3">
         <v>55000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>65000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>69600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>79300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,31 +2423,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2369,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>72600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2386,32 +2479,35 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E44" s="3">
         <v>10300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2421,8 +2517,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E46" s="3">
         <v>108000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>126100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>152200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>95200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>115800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>139100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>94300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>106100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2580,58 +2685,61 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>72000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>68600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2651,31 +2759,34 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>80400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>77300</v>
       </c>
       <c r="K49" s="3">
         <v>77300</v>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3">
         <v>77300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>77300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,35 +2927,38 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
       </c>
       <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2846,25 +2966,28 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E54" s="3">
         <v>194500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>214200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>240400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>182700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>202800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>183400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>152200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>151000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3100,228 +3234,240 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>211300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>72000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>68600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>212700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>73200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>69400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E61" s="3">
         <v>92700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>92100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>91500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>90900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>90300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>134900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>122400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E62" s="3">
         <v>38800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>36900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>65300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>21300</v>
       </c>
       <c r="P62" s="3">
         <v>21300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>21300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E66" s="3">
         <v>150900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>165600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>145600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>75400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>227800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>229500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>213100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-265400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-253900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-232800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-213100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-198600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-171600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-123000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-110600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-98800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-82300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-75500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E76" s="3">
         <v>43600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>75400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>84400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>95000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-75500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-78500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,20 +4435,20 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4260,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,22 +4846,22 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E94" s="3">
         <v>9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>34400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-80000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>72700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>67400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>51800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-75200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>70800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-38800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,116 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E8" s="3">
         <v>17700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -784,8 +787,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -802,32 +805,35 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,32 +864,35 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E10" s="3">
         <v>12800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2700</v>
       </c>
       <c r="S12" s="3">
         <v>2700</v>
       </c>
       <c r="T12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,69 +1064,75 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-9900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
@@ -1119,20 +1141,20 @@
         <v>1700</v>
       </c>
       <c r="G15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="3">
         <v>1500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1149,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,88 +1204,92 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E17" s="3">
         <v>26400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>38300</v>
       </c>
       <c r="I17" s="3">
         <v>38300</v>
       </c>
       <c r="J17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K17" s="3">
         <v>25300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,26 +1302,29 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1334,11 +1367,11 @@
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1351,8 +1384,8 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1369,32 +1402,35 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-106100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1407,26 +1443,29 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1473,7 @@
         <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="F22" s="3">
         <v>2500</v>
@@ -1446,126 +1485,132 @@
         <v>2500</v>
       </c>
       <c r="I22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-14500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1576,11 +1621,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-10500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3200</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -2006,11 +2075,11 @@
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2023,8 +2092,8 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,55 +2399,56 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E41" s="3">
         <v>85100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49600</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2370,35 +2456,38 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="3">
         <v>25000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>55000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>69600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>79300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2408,8 +2497,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2426,34 +2515,37 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2465,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>72600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,35 +2574,38 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2520,8 +2615,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2538,120 +2633,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E46" s="3">
         <v>132400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>126100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>152200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>115800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>139100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>94300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>106100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2688,61 +2792,64 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>72000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>68600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2762,34 +2869,37 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E49" s="3">
         <v>78000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>80400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>77300</v>
       </c>
       <c r="L49" s="3">
         <v>77300</v>
@@ -2809,8 +2919,8 @@
       <c r="Q49" s="3">
         <v>77300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>77300</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,38 +3046,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2969,25 +3088,28 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>209100</v>
+      </c>
+      <c r="E54" s="3">
         <v>215800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>194500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>214200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>240400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>182700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>202800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>220900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>183400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>127400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>152200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>151000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,87 +3271,91 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>93500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3237,240 +3370,252 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>211300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>72000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>68600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>212700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>73200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>69400</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E61" s="3">
         <v>133000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>92700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>92100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>91500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>90900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>90300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>89700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>134900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>122400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E62" s="3">
         <v>35000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>21300</v>
       </c>
       <c r="Q62" s="3">
         <v>21300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>21300</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E66" s="3">
         <v>180700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>150900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>165600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>145600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>84000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>75400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>227800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>229500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>213100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-376100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-265400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-253900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-232800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-213100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-198600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-171600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-123000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-110600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-98800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-82300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-75500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-73100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E76" s="3">
         <v>35100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>95000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-75500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-67000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -4438,20 +4636,20 @@
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4462,13 +4660,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,34 +5056,35 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,46 +5231,49 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E94" s="3">
         <v>29300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>34400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-80000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>39800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>72700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>60400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>67400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>51800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>55400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-75200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-38800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E8" s="3">
         <v>20600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,8 +794,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -808,35 +812,38 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
-        <v>4200</v>
-      </c>
       <c r="H9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -867,35 +874,38 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
         <v>13300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
-        <v>6300</v>
-      </c>
       <c r="H10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I10" s="3">
         <v>15800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2700</v>
       </c>
       <c r="T12" s="3">
         <v>2700</v>
       </c>
       <c r="U12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,75 +1084,81 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E14" s="3">
         <v>91300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-9900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1700</v>
       </c>
       <c r="F15" s="3">
         <v>1700</v>
@@ -1144,20 +1167,20 @@
         <v>1700</v>
       </c>
       <c r="H15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I15" s="3">
         <v>1500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1174,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,94 +1231,98 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>128600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>38300</v>
       </c>
       <c r="J17" s="3">
         <v>38300</v>
       </c>
       <c r="K17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="L17" s="3">
         <v>25300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-108000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,26 +1335,29 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
@@ -1370,11 +1404,11 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1387,8 +1421,8 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1405,35 +1439,38 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-106100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1446,37 +1483,40 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>2800</v>
       </c>
       <c r="F22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>2500</v>
@@ -1488,132 +1528,138 @@
         <v>2500</v>
       </c>
       <c r="J22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-110800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1624,11 +1670,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-110700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-110700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
@@ -2078,11 +2148,11 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2095,8 +2165,8 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-110700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-110700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,58 +2486,59 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E41" s="3">
         <v>102600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
@@ -2459,38 +2546,41 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>55000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>34900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>69600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>79300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2500,8 +2590,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2518,37 +2608,40 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E43" s="3">
         <v>9700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2560,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>72600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2577,38 +2670,41 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2714,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2636,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E46" s="3">
         <v>127600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>132400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>126100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>152200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>115800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>106100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>72800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2795,64 +2900,67 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>72000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>68600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2872,37 +2980,40 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E49" s="3">
         <v>76500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>78000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>80400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>81100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>77300</v>
       </c>
       <c r="M49" s="3">
         <v>77300</v>
@@ -2922,8 +3033,8 @@
       <c r="R49" s="3">
         <v>77300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>77300</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,32 +3178,32 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3091,25 +3211,28 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E54" s="3">
         <v>209100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>194500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>214200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>240400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>182700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>202800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>183400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>152200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>151000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>146100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,76 +3402,80 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E58" s="3">
         <v>93500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3357,8 +3491,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3373,252 +3507,264 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>211300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>72000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>68600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E59" s="3">
         <v>77200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E60" s="3">
         <v>180200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>212700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>73200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>69400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>40500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>133000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>92700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>92100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>91500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>90900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>90300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>134900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>122400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E62" s="3">
         <v>61300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>65300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>21300</v>
       </c>
       <c r="R62" s="3">
         <v>21300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>21300</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E66" s="3">
         <v>282000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>150900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>151500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>165600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>145600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>84000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>75400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>227800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>229500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>213100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-369700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-376100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-265400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-253900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-232800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-213100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-171600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-123000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-110600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-82300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-75500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-73100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-73000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>79500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>95000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-75500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-78500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-67000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-110700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +4819,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
@@ -4639,20 +4838,20 @@
         <v>1700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4663,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,37 +5277,38 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,49 +5461,52 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>19700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>29300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>34400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-76800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>39800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>72700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>60400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>67400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>51800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E102" s="3">
         <v>17400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>55400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-75200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-38800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E8" s="3">
         <v>12200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -797,8 +801,8 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -815,38 +819,41 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
-        <v>1900</v>
-      </c>
       <c r="H9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I9" s="3">
         <v>8400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,38 +884,41 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E10" s="3">
         <v>7300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12800</v>
       </c>
-      <c r="G10" s="3">
-        <v>5900</v>
-      </c>
       <c r="H10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>2700</v>
       </c>
       <c r="U12" s="3">
         <v>2700</v>
       </c>
       <c r="V12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,81 +1104,87 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-23300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>91300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-9900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1700</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
@@ -1170,20 +1193,20 @@
         <v>1700</v>
       </c>
       <c r="I15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J15" s="3">
         <v>1500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1200,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,100 +1258,104 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>38300</v>
       </c>
       <c r="K17" s="3">
         <v>38300</v>
       </c>
       <c r="L17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="M17" s="3">
         <v>25300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-108000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1338,26 +1368,29 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1407,11 +1441,11 @@
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1424,8 +1458,8 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1442,38 +1476,41 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E21" s="3">
         <v>9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-106100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-34400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1486,40 +1523,43 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2800</v>
       </c>
       <c r="F22" s="3">
         <v>2800</v>
       </c>
       <c r="G22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
         <v>2500</v>
@@ -1531,105 +1571,111 @@
         <v>2500</v>
       </c>
       <c r="K22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-110800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,32 +1683,32 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-10500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-110700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-110700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -2151,11 +2221,11 @@
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,8 +2238,8 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-110700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-110700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,61 +2573,62 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E41" s="3">
         <v>22200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>109900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>105200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49600</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2558,32 +2648,32 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>55000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>65000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>34900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>69600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>79300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,40 +2701,43 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
         <v>40600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2656,16 +2749,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>72600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2673,41 +2766,44 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2717,8 +2813,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161900</v>
+      </c>
+      <c r="E46" s="3">
         <v>77700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>132400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>126100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>152200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>139100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>106100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2903,67 +3008,70 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>72000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>68600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2983,40 +3091,43 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E49" s="3">
         <v>74800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>78000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>80400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>81100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>77300</v>
       </c>
       <c r="N49" s="3">
         <v>77300</v>
@@ -3036,8 +3147,8 @@
       <c r="S49" s="3">
         <v>77300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>77300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,32 +3301,32 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1200</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
       </c>
       <c r="L52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -3214,25 +3334,28 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E54" s="3">
         <v>157200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>209100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>215800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>194500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>214200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>240400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>182700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>183400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>152200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>151000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>146100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,82 +3533,86 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>13300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E58" s="3">
         <v>19400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>93500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3494,8 +3628,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3510,149 +3644,158 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>211300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>72000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>68600</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E59" s="3">
         <v>55000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E60" s="3">
         <v>87600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>180200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>212700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>73200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>69400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,114 +3803,117 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>40500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>133000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>92700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>92100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>91500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>90900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>134900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>122400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E62" s="3">
         <v>46300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>61300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>36900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>65300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>21300</v>
       </c>
       <c r="S62" s="3">
         <v>21300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>21300</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E66" s="3">
         <v>133900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>282000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>150900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>151500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>165600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>145600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>84000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>75400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>227800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>229500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>213100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-385300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-369700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-376100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-265400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-253900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-232800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-213100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-171600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-123000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-110600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-82300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-75500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-78500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-73100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E76" s="3">
         <v>23300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-73000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>79500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>95000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-75500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-78500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-67000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-110700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5018,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -4841,20 +5040,20 @@
         <v>1700</v>
       </c>
       <c r="I83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4865,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,40 +5498,41 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,52 +5691,55 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>19700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>29300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>34400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-80000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>39800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>72700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>67400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>51800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-80400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-75200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-38800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>61600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E8" s="3">
         <v>26100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
@@ -804,8 +808,8 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -822,41 +826,44 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E9" s="3">
         <v>11300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,41 +894,44 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E10" s="3">
         <v>14800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>2700</v>
       </c>
       <c r="V12" s="3">
         <v>2700</v>
       </c>
       <c r="W12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,78 +1136,81 @@
         <v>1400</v>
       </c>
       <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
         <v>-23300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>91300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-9900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1700</v>
       </c>
       <c r="H15" s="3">
         <v>1700</v>
@@ -1196,20 +1219,20 @@
         <v>1700</v>
       </c>
       <c r="J15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1226,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,106 +1285,110 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E17" s="3">
         <v>41400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>38300</v>
       </c>
       <c r="L17" s="3">
         <v>38300</v>
       </c>
       <c r="M17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="N17" s="3">
         <v>25300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-108000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1371,26 +1401,29 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
@@ -1444,11 +1478,11 @@
         <v>400</v>
       </c>
       <c r="L20" s="3">
+        <v>400</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1461,8 +1495,8 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1479,41 +1513,44 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-106100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-34400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1526,26 +1563,29 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,16 +1593,16 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="I22" s="3">
         <v>2500</v>
@@ -1574,108 +1614,114 @@
         <v>2500</v>
       </c>
       <c r="L22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-110800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,32 +1732,32 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1768,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-10500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-110700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-110700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3200</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2212,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
@@ -2224,11 +2294,11 @@
         <v>-400</v>
       </c>
       <c r="L32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,8 +2311,8 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-110700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-110700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,64 +2660,65 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E41" s="3">
         <v>131700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>102600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>109900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>105200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49600</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2651,32 +2741,32 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>55000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>65000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>34900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>69600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,43 +2794,46 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2752,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>72600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2769,44 +2862,47 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2816,8 +2912,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E46" s="3">
         <v>161900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>77700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>108000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>126100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>152200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>95200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>139100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>106100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>72800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3011,70 +3116,73 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>72000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>68600</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -3094,43 +3202,46 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E49" s="3">
         <v>73500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>78000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>80400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>77300</v>
       </c>
       <c r="O49" s="3">
         <v>77300</v>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3">
         <v>77300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>77300</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,32 +3424,32 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
       </c>
       <c r="M52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -3337,25 +3457,28 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>2100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E54" s="3">
         <v>239900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>157200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>209100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>215800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>194500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>214200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>240400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>182700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>202800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>183400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>127400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>152200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>151000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>146100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,88 +3664,92 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>19600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>93500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3631,8 +3765,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3647,155 +3781,164 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>211300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>72000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>68600</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E59" s="3">
         <v>59600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E60" s="3">
         <v>87300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>180200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>212700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>73200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>69400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,117 +3949,120 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>40500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>133000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>92700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>92100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>91500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>90300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>89700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>134900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>122400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E62" s="3">
         <v>46400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>61300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>65300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>66200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>63800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>21300</v>
       </c>
       <c r="T62" s="3">
         <v>21300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>21300</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E66" s="3">
         <v>133700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>282000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>150900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>151500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>165600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>161600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>145600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>87500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>84000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>75400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>227800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>229500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>213100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-404700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-385300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-369700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-376100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-265400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-253900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-232800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-213100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-198600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-171600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-134000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-123000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-110600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-98800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-82300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-75500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-78500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-73100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E76" s="3">
         <v>106100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-73000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>79500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>95000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-75500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-78500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-67000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-110700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,22 +5217,23 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -5043,20 +5242,20 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5067,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>-200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E89" s="3">
         <v>16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,32 +5731,32 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,55 +5921,58 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>19700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>29300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>34400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-80000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E100" s="3">
         <v>93800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-76800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>39800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>72700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>67400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>51800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E102" s="3">
         <v>109600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-75200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-38800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>61600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49600</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,143 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E8" s="3">
         <v>26700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
@@ -811,8 +814,8 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -829,44 +832,47 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E9" s="3">
         <v>11500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,44 +903,47 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E10" s="3">
         <v>15200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
-      </c>
-      <c r="V12" s="3">
-        <v>2700</v>
       </c>
       <c r="W12" s="3">
         <v>2700</v>
       </c>
       <c r="X12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
         <v>1400</v>
       </c>
       <c r="F14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G14" s="3">
         <v>-23300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>91300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-9900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,16 +1226,16 @@
         <v>900</v>
       </c>
       <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
-        <v>1900</v>
-      </c>
       <c r="H15" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="I15" s="3">
         <v>1700</v>
@@ -1222,20 +1244,20 @@
         <v>1700</v>
       </c>
       <c r="K15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,112 +1311,116 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E17" s="3">
         <v>45800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>128600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>38300</v>
       </c>
       <c r="M17" s="3">
         <v>38300</v>
       </c>
       <c r="N17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="O17" s="3">
         <v>25300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-108000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1404,26 +1433,29 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1469,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
@@ -1481,11 +1514,11 @@
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1498,8 +1531,8 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1516,44 +1549,47 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-106100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-34400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1566,46 +1602,49 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2800</v>
       </c>
       <c r="H22" s="3">
         <v>2800</v>
       </c>
       <c r="I22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
         <v>2500</v>
@@ -1617,111 +1656,117 @@
         <v>2500</v>
       </c>
       <c r="M22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-110800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1735,32 +1780,32 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1771,11 +1816,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-10500</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-110700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-110700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2110,12 +2170,12 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3200</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2285,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
@@ -2297,11 +2366,11 @@
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2314,8 +2383,8 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-110700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-110700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,67 +2746,68 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E41" s="3">
         <v>107800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>102600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>85100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49600</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
+      <c r="V41" s="3">
+        <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2744,32 +2833,32 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>55000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>65000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>34900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>69600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>79300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2779,8 +2868,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2797,46 +2886,49 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E43" s="3">
         <v>13300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2848,16 +2940,16 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>72600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2865,47 +2957,50 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2915,8 +3010,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2933,144 +3028,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E46" s="3">
         <v>138300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>77700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>108000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>126100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>95200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>139100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>94300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>106100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>72800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3119,73 +3223,76 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>72000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>68600</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3205,46 +3312,49 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E49" s="3">
         <v>72700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>76500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>78000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>79200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>80400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>77300</v>
       </c>
       <c r="P49" s="3">
         <v>77300</v>
@@ -3264,8 +3374,8 @@
       <c r="U49" s="3">
         <v>77300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>77300</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3525,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -3427,32 +3546,32 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1200</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
       </c>
       <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3460,25 +3579,28 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>2100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E54" s="3">
         <v>215200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>239900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>157200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>209100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>215800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>194500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>214200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>240400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>202800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>171800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>183400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>127400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>152200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>151000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>146100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,94 +3794,98 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>20000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>93500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3768,8 +3901,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3784,166 +3917,175 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>211300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>72000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>68600</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E59" s="3">
         <v>44000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E60" s="3">
         <v>71300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>180200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>212700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>73200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>69400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>71200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3952,120 +4094,123 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>40500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>133000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>92700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>92100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>90900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>90300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>89700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>134900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>122400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E62" s="3">
         <v>46500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>61300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>65300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>66200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15000</v>
-      </c>
-      <c r="T62" s="3">
-        <v>21300</v>
       </c>
       <c r="U62" s="3">
         <v>21300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>21300</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E66" s="3">
         <v>117800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>282000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>150900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>151500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>165600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>145600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>87500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>84000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>75400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>227800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>229500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>213100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-422900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-404700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-385300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-369700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-376100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-265400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-253900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-232800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-213100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-198600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-171600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-134000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-123000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-110600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-98800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-82300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-75500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-78500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-73100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E76" s="3">
         <v>97400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>106100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-73000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>62600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>75400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>84400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>95000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-75500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-78500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-67000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-110700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,16 +5425,16 @@
         <v>900</v>
       </c>
       <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1700</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
@@ -5245,20 +5443,20 @@
         <v>1700</v>
       </c>
       <c r="K83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5269,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>-200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,32 +5954,32 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,58 +6150,61 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-80000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E100" s="3">
         <v>8200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>93800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-76800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>39800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>72700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>60400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>67400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>51800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>109600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-75200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>70800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-38800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>61600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E8" s="3">
         <v>34700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
@@ -817,8 +821,8 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -835,47 +839,50 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E9" s="3">
         <v>15800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,47 +913,50 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E10" s="3">
         <v>18900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
-      </c>
-      <c r="W12" s="3">
-        <v>2700</v>
       </c>
       <c r="X12" s="3">
         <v>2700</v>
       </c>
       <c r="Y12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1400</v>
       </c>
       <c r="F14" s="3">
         <v>1400</v>
       </c>
       <c r="G14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H14" s="3">
         <v>-23300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>91300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-9900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,16 +1252,16 @@
         <v>900</v>
       </c>
       <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1700</v>
       </c>
       <c r="J15" s="3">
         <v>1700</v>
@@ -1247,20 +1270,20 @@
         <v>1700</v>
       </c>
       <c r="L15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1277,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,118 +1338,122 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E17" s="3">
         <v>52700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>128600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>38300</v>
       </c>
       <c r="N17" s="3">
         <v>38300</v>
       </c>
       <c r="O17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="P17" s="3">
         <v>25300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-108000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1436,26 +1466,29 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
@@ -1517,11 +1551,11 @@
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1534,8 +1568,8 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1552,47 +1586,50 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-106100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-23500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-34400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1605,49 +1642,52 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2800</v>
       </c>
       <c r="I22" s="3">
         <v>2800</v>
       </c>
       <c r="J22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K22" s="3">
         <v>2500</v>
@@ -1659,114 +1699,120 @@
         <v>2500</v>
       </c>
       <c r="N22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-110800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1783,32 +1829,32 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1819,11 +1865,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-10500</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-110700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-110700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,8 +2216,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -2173,12 +2234,12 @@
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2357,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
@@ -2369,11 +2439,11 @@
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +2456,8 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-110700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-110700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,70 +2833,71 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E41" s="3">
         <v>146300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>85100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>105200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>49600</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
+      <c r="W41" s="3">
+        <v>0</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
@@ -2818,13 +2905,16 @@
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2836,32 +2926,32 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>55000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>34900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>69600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>79300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2871,8 +2961,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2889,49 +2979,52 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E43" s="3">
         <v>14700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2943,16 +3036,16 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>72600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -2960,50 +3053,53 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3013,8 +3109,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3031,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E46" s="3">
         <v>178800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>127600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>108000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>126100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>152200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>139100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>94300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>106100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>50100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>72800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3226,76 +3331,79 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>72000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>68600</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3315,49 +3423,52 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E49" s="3">
         <v>71800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>72700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>76500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>78000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>79200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>80400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>81100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>77300</v>
       </c>
       <c r="Q49" s="3">
         <v>77300</v>
@@ -3377,8 +3488,8 @@
       <c r="V49" s="3">
         <v>77300</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
+      <c r="W49" s="3">
+        <v>77300</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,16 +3645,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3549,32 +3669,32 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1200</v>
       </c>
       <c r="N52" s="3">
         <v>1200</v>
       </c>
       <c r="O52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
@@ -3582,25 +3702,28 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>2100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E54" s="3">
         <v>257500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>215200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>239900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>157200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>209100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>215800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>194500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>214200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>240400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>182700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>202800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>220900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>171800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>183400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>127400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>152200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>151000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>146100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,100 +3925,104 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>20000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>93500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3904,8 +4038,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3920,176 +4054,185 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>211300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>72000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>68600</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E59" s="3">
         <v>51600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>77200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E60" s="3">
         <v>57700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>180200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>212700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>73200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>69400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E61" s="3">
         <v>71200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4097,123 +4240,126 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>40500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>133000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>92700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>92100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>91500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>90900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>89700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>134900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>122400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E62" s="3">
         <v>46700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>38800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>65300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>66200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>55600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>21300</v>
       </c>
       <c r="V62" s="3">
         <v>21300</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>21300</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>153400</v>
+      </c>
+      <c r="E66" s="3">
         <v>175600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>282000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>150900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>151500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>161000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>165600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>145600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>88400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>84000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>75400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>227800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>229500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>213100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-440400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-422900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-404700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-385300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-369700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-376100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-265400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-253900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-232800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-213100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-198600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-171600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-110600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-98800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-82300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-75500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-78500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-73100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E76" s="3">
         <v>81900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>97400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>106100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-73000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>95000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-75500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-78500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-67000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-110700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5428,16 +5627,16 @@
         <v>900</v>
       </c>
       <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>1700</v>
@@ -5446,20 +5645,20 @@
         <v>1700</v>
       </c>
       <c r="L83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5470,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>-200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,13 +6160,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -5957,32 +6178,32 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,61 +6380,64 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>29300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>34400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-80000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>47900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>93800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-76800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>39800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>72700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>60400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>67400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>51800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E102" s="3">
         <v>38500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>109600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-75200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>70800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-38800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>61600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49600</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,157 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E8" s="3">
         <v>33900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
@@ -824,8 +828,8 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -842,50 +846,53 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E9" s="3">
         <v>13200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,50 +923,53 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E10" s="3">
         <v>20700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>2700</v>
       </c>
       <c r="Y12" s="3">
         <v>2700</v>
       </c>
       <c r="Z12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1400</v>
       </c>
       <c r="G14" s="3">
         <v>1400</v>
       </c>
       <c r="H14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-23300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>91300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-9900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1255,16 +1278,16 @@
         <v>900</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1700</v>
       </c>
       <c r="K15" s="3">
         <v>1700</v>
@@ -1273,20 +1296,20 @@
         <v>1700</v>
       </c>
       <c r="M15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1303,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,124 +1365,128 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E17" s="3">
         <v>49400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>128600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>38300</v>
       </c>
       <c r="O17" s="3">
         <v>38300</v>
       </c>
       <c r="P17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>25300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-108000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1469,26 +1499,29 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1542,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
@@ -1554,11 +1588,11 @@
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1571,8 +1605,8 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1589,50 +1623,53 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-13600</v>
-      </c>
       <c r="H21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-106100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-23500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-34400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1645,52 +1682,55 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
       </c>
       <c r="J22" s="3">
         <v>2800</v>
       </c>
       <c r="K22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L22" s="3">
         <v>2500</v>
@@ -1702,117 +1742,123 @@
         <v>2500</v>
       </c>
       <c r="O22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-110800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1832,32 +1878,32 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1868,11 +1914,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-10500</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-23500</v>
       </c>
       <c r="E26" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-18200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-110700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-23500</v>
       </c>
       <c r="E27" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-18200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-110700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-37600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
@@ -2237,12 +2298,12 @@
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3200</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2430,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
@@ -2442,11 +2512,11 @@
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2459,8 +2529,8 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-23500</v>
       </c>
       <c r="E33" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-18200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-110700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-37600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-23500</v>
       </c>
       <c r="E35" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-18200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-110700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-37600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,73 +2920,74 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E41" s="3">
         <v>106700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>85100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>109900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>105200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>49600</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
+      <c r="X41" s="3">
+        <v>0</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
@@ -2908,16 +2995,19 @@
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2929,32 +3019,32 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>55000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>65000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>34900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>69600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>79300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,52 +3072,55 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3039,16 +3132,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>72600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3056,53 +3149,56 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3112,8 +3208,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3130,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E46" s="3">
         <v>142900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>178800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>77700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>127600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>108000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>126100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>152200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>139100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>94300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>106100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>50100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>72800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3334,26 +3439,29 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>72000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>68600</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,52 +3469,52 @@
         <v>3800</v>
       </c>
       <c r="E48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3426,52 +3534,55 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E49" s="3">
         <v>71200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>71800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>72700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>73500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>74800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>76500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>78000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>79200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>80400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>81100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>77300</v>
       </c>
       <c r="R49" s="3">
         <v>77300</v>
@@ -3491,8 +3602,8 @@
       <c r="W49" s="3">
         <v>77300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="X49" s="3">
+        <v>77300</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,19 +3765,22 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3672,32 +3792,32 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3705,25 +3825,28 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>2100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E54" s="3">
         <v>220700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>257500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>215200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>239900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>157200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>209100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>215800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>194500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>240400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>182700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>202800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>171800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>183400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>121900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>127400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>152200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>151000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>146100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,106 +4056,110 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>20000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>93500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4041,8 +4175,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4057,185 +4191,194 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>211300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>72000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>68600</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23800</v>
+        <v>41000</v>
       </c>
       <c r="E59" s="3">
+        <v>33100</v>
+      </c>
+      <c r="F59" s="3">
         <v>51600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>59600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>55000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>77200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E60" s="3">
         <v>40700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>180200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>212700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>73200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>69400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E61" s="3">
         <v>71400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4243,126 +4386,129 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>40500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>133000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>92700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>92100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>91500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>90300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>89700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>134900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>122400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E62" s="3">
         <v>41300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>65300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>66200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>63800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>55600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>21300</v>
       </c>
       <c r="W62" s="3">
         <v>21300</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
+      <c r="X62" s="3">
+        <v>21300</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E66" s="3">
         <v>153400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>175600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>133900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>282000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>180700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>150900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>151500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>165600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>145600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>88400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>84000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>75400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>227800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>229500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>213100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-463900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-440400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-422900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-404700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-385300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-369700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-376100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-265400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-253900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-232800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-213100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-198600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-171600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-123000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-110600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-98800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-82300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-75500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-78500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-73100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E76" s="3">
         <v>67200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-73000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>43600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>84400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>95000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-75500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-78500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-67000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-23500</v>
       </c>
       <c r="E81" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-18200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-110700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-37600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5630,16 +5829,16 @@
         <v>900</v>
       </c>
       <c r="G83" s="3">
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1700</v>
       </c>
       <c r="K83" s="3">
         <v>1700</v>
@@ -5648,20 +5847,20 @@
         <v>1700</v>
       </c>
       <c r="M83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5672,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>-200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-38200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,16 +6381,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -6181,32 +6402,32 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,64 +6610,67 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>19700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>34400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,105 +7024,111 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>47900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>93800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-76800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>39800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>72700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>60400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>67400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>51800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>109600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-80400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-75200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>70800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>61600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>49600</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,164 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E8" s="3">
         <v>37200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
@@ -831,8 +835,8 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -849,53 +853,56 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E9" s="3">
         <v>15800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,53 +933,56 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E10" s="3">
         <v>21400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>2700</v>
       </c>
       <c r="Z12" s="3">
         <v>2700</v>
       </c>
       <c r="AA12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AB12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1400</v>
       </c>
       <c r="H14" s="3">
         <v>1400</v>
       </c>
       <c r="I14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J14" s="3">
         <v>-23300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>91300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-9900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,16 +1304,16 @@
         <v>900</v>
       </c>
       <c r="H15" s="3">
+        <v>900</v>
+      </c>
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1700</v>
       </c>
       <c r="L15" s="3">
         <v>1700</v>
@@ -1299,20 +1322,20 @@
         <v>1700</v>
       </c>
       <c r="N15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1329,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,130 +1392,134 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E17" s="3">
         <v>58500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>128600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>38300</v>
       </c>
       <c r="P17" s="3">
         <v>38300</v>
       </c>
       <c r="Q17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="R17" s="3">
         <v>25300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-108000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-25100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1502,26 +1532,29 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,17 +1582,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1579,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
@@ -1591,11 +1625,11 @@
         <v>400</v>
       </c>
       <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1608,8 +1642,8 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1626,53 +1660,56 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-106100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-23500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1685,55 +1722,58 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2800</v>
       </c>
       <c r="K22" s="3">
         <v>2800</v>
       </c>
       <c r="L22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M22" s="3">
         <v>2500</v>
@@ -1745,120 +1785,126 @@
         <v>2500</v>
       </c>
       <c r="P22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-110800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-25500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1881,32 +1927,32 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14500</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1917,11 +1963,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-10500</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-110700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-110700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>4</v>
@@ -2301,12 +2362,12 @@
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3200</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2503,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
@@ -2515,11 +2585,11 @@
         <v>-400</v>
       </c>
       <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2532,8 +2602,8 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-110700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-110700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,76 +3007,77 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E41" s="3">
         <v>84500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>131700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>102600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>109900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>105200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49600</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
+      <c r="Y41" s="3">
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,8 +3099,8 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3022,32 +3112,32 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>55000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>65000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>69600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>79300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3057,8 +3147,8 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3075,55 +3165,58 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E43" s="3">
         <v>21000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3135,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>72600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3152,56 +3245,59 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E44" s="3">
         <v>12300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3211,8 +3307,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3229,162 +3325,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E46" s="3">
         <v>133900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>142900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>178800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>77700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>127600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>132400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>108000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>126100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>152200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>95200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>139100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>94300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>106100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>50100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>72800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3442,82 +3547,85 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3">
         <v>72000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>68600</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3">
         <v>3800</v>
       </c>
       <c r="F48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
@@ -3537,55 +3645,58 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E49" s="3">
         <v>70600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>71200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>71800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>72700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>73500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>74800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>76500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>78000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>79200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>80400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>77300</v>
       </c>
       <c r="S49" s="3">
         <v>77300</v>
@@ -3605,8 +3716,8 @@
       <c r="X49" s="3">
         <v>77300</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
+      <c r="Y49" s="3">
+        <v>77300</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,22 +3885,25 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3795,32 +3915,32 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1200</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3828,25 +3948,28 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>2100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E54" s="3">
         <v>210900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>220700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>257500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>215200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>239900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>157200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>209100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>215800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>194500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>214200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>240400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>182700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>202800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>171800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>183400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>121900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>127400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>152200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>151000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>146100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,24 +4279,24 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>20000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>93500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4178,8 +4312,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4194,194 +4328,203 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>211300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>72000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>68600</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E59" s="3">
         <v>41000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E60" s="3">
         <v>51500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>180200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>212700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>73200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>69400</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E61" s="3">
         <v>71500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4389,129 +4532,132 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>40500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>133000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>92700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>92100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>91500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>90900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>90300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>89700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>134900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>122400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E62" s="3">
         <v>41000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>65300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>66200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>63800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>21300</v>
       </c>
       <c r="X62" s="3">
         <v>21300</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
+      <c r="Y62" s="3">
+        <v>21300</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E66" s="3">
         <v>164100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>153400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>175600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>133700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>133900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>282000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>150900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>151500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>165600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>145600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>88400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>84000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>75400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>227800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>229500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>213100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-484100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-463900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-440400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-422900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-404700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-385300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-369700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-376100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-253900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-232800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-213100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-198600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-171600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-134000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-123000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-110600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-98800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-82300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-75500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-78500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-73100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E76" s="3">
         <v>46900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>67200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-73000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>84400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>95000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-75500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-78500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-67000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-110700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5832,16 +6031,16 @@
         <v>900</v>
       </c>
       <c r="H83" s="3">
+        <v>900</v>
+      </c>
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1700</v>
       </c>
       <c r="L83" s="3">
         <v>1700</v>
@@ -5850,20 +6049,20 @@
         <v>1700</v>
       </c>
       <c r="N83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5874,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>-200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>200</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-38200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -6405,32 +6626,32 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,67 +6840,70 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>19700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>29300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>14000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>34400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-80000</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,87 +7282,90 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>47900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>93800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-76800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>39800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>72700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>60400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>67400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>51800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3">
+        <v>-100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -7130,8 +7379,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>109600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-80400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>70800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-38800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>61600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>49600</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,170 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E8" s="3">
         <v>33900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +841,8 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -856,56 +859,59 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E9" s="3">
         <v>13500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,56 +942,59 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E10" s="3">
         <v>20400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>2700</v>
       </c>
       <c r="AA12" s="3">
         <v>2700</v>
       </c>
       <c r="AB12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AC12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,93 +1222,99 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1400</v>
       </c>
       <c r="I14" s="3">
         <v>1400</v>
       </c>
       <c r="J14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-23300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>91300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-9900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
@@ -1307,16 +1329,16 @@
         <v>900</v>
       </c>
       <c r="I15" s="3">
+        <v>900</v>
+      </c>
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1700</v>
       </c>
       <c r="M15" s="3">
         <v>1700</v>
@@ -1325,20 +1347,20 @@
         <v>1700</v>
       </c>
       <c r="O15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1355,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="3">
         <v>100</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,136 +1418,140 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E17" s="3">
         <v>51800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>38300</v>
       </c>
       <c r="Q17" s="3">
         <v>38300</v>
       </c>
       <c r="R17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="S17" s="3">
         <v>25300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-108000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1535,26 +1564,29 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,20 +1615,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1616,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
       </c>
       <c r="O20" s="3">
         <v>400</v>
@@ -1628,11 +1661,11 @@
         <v>400</v>
       </c>
       <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1645,8 +1678,8 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1663,56 +1696,59 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-106100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-34400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1725,58 +1761,61 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2800</v>
       </c>
       <c r="L22" s="3">
         <v>2800</v>
       </c>
       <c r="M22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N22" s="3">
         <v>2500</v>
@@ -1788,128 +1827,134 @@
         <v>2500</v>
       </c>
       <c r="Q22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
       </c>
       <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-110800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-37800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-25500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-16400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1930,32 +1975,32 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14500</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1966,11 +2011,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-10500</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-110700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-16400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-110700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-37600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-16400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2407,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
@@ -2365,12 +2425,12 @@
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3">
         <v>-3200</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,20 +2609,23 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2576,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
       </c>
       <c r="O32" s="3">
         <v>-400</v>
@@ -2588,11 +2657,11 @@
         <v>-400</v>
       </c>
       <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2605,8 +2674,8 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-110700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-37600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-16400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-110700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-37600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-16400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,79 +3093,80 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E41" s="3">
         <v>65600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>146300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>131700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>102600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>54400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>93200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>105200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>49600</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
+      <c r="Z41" s="3">
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>4</v>
@@ -3088,19 +3174,22 @@
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3115,32 +3204,32 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>55000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>65000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>69600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>79300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3150,8 +3239,8 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3168,58 +3257,61 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>20900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3231,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>72600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3248,59 +3340,62 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E44" s="3">
         <v>21600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,8 +3405,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3328,168 +3423,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E46" s="3">
         <v>115900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>142900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>178800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>77700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>127600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>132400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>108000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>126100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>152200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>95200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>139100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>94300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>106100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>44600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>50100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>72800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3550,85 +3654,88 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>72000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>68600</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3800</v>
       </c>
       <c r="F48" s="3">
         <v>3800</v>
       </c>
       <c r="G48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -3648,58 +3755,61 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E49" s="3">
         <v>70300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>70600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>71200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>71800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>72700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>73500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>74800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>76500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>79200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>80400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>81100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>77300</v>
       </c>
       <c r="T49" s="3">
         <v>77300</v>
@@ -3719,8 +3829,8 @@
       <c r="Y49" s="3">
         <v>77300</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
+      <c r="Z49" s="3">
+        <v>77300</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>4</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,25 +4004,28 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3918,32 +4037,32 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1200</v>
       </c>
       <c r="Q52" s="3">
         <v>1200</v>
       </c>
       <c r="R52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3951,25 +4070,28 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>2100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E54" s="3">
         <v>192700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>210900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>220700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>257500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>215200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>239900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>157200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>215800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>194500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>214200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>240400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>182700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>202800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>220900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>171800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>183400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>121900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>127400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>152200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>151000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>146100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4317,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4282,24 +4415,24 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>20000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4315,8 +4448,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4331,203 +4464,212 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>211300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>72000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>68600</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E59" s="3">
         <v>42700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E60" s="3">
         <v>51300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>180200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>212700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>73200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>69400</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E61" s="3">
         <v>71700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>71200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4535,132 +4677,135 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>40500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>133000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>92700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>92100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>91500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>90900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>90300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>89700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>134900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>122400</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E62" s="3">
         <v>40500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>65300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>66200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>63800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>55600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15000</v>
-      </c>
-      <c r="X62" s="3">
-        <v>21300</v>
       </c>
       <c r="Y62" s="3">
         <v>21300</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>21300</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E66" s="3">
         <v>163500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>153400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>175600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>133700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>133900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>282000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>150900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>151500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>161000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>165600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>145600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>88400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>84000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>75400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>227800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>229500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>213100</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-497300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-484100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-463900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-440400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-422900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-404700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-385300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-369700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-376100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-265400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-253900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-232800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-213100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-198600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-171600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-134000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-123000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-110600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-98800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-82300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-75500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-78500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-73100</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E76" s="3">
         <v>29200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>67200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-73000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>43600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>84400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>95000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>37900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>52000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-75500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-78500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-67000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-110700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-37600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-16400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6210,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
@@ -6034,16 +6232,16 @@
         <v>900</v>
       </c>
       <c r="I83" s="3">
+        <v>900</v>
+      </c>
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1700</v>
       </c>
       <c r="M83" s="3">
         <v>1700</v>
@@ -6052,20 +6250,20 @@
         <v>1700</v>
       </c>
       <c r="O83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -6076,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>-200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-38200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,22 +6822,23 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -6629,32 +6849,32 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,70 +7069,73 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>34400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-80000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,102 +7515,108 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="E100" s="3">
         <v>-800</v>
       </c>
       <c r="F100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>47900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>93800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-76800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>39800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>72700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>60400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>67400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>51800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>5400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>-100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -7382,8 +7630,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>109600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-80400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>70800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-38800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>61600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>49600</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,177 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E8" s="3">
         <v>43600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
@@ -844,8 +848,8 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -862,59 +866,62 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E9" s="3">
         <v>13400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -945,59 +952,62 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E10" s="3">
         <v>30200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>2700</v>
       </c>
       <c r="AB12" s="3">
         <v>2700</v>
       </c>
       <c r="AC12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,99 +1242,105 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1400</v>
       </c>
       <c r="J14" s="3">
         <v>1400</v>
       </c>
       <c r="K14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L14" s="3">
         <v>-23300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>91300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-9900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
@@ -1332,16 +1355,16 @@
         <v>900</v>
       </c>
       <c r="J15" s="3">
+        <v>900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1700</v>
       </c>
       <c r="N15" s="3">
         <v>1700</v>
@@ -1350,20 +1373,20 @@
         <v>1700</v>
       </c>
       <c r="P15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>500</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1380,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>100</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,142 +1445,146 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E17" s="3">
         <v>54300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>128600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>38300</v>
       </c>
       <c r="R17" s="3">
         <v>38300</v>
       </c>
       <c r="S17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="T17" s="3">
         <v>25300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-108000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-25100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-36000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1567,26 +1597,29 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,23 +1649,24 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1652,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
       </c>
       <c r="P20" s="3">
         <v>400</v>
@@ -1664,11 +1698,11 @@
         <v>400</v>
       </c>
       <c r="R20" s="3">
+        <v>400</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1681,8 +1715,8 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1699,59 +1733,62 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-106100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-23500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-34400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1764,61 +1801,64 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2800</v>
       </c>
       <c r="M22" s="3">
         <v>2800</v>
       </c>
       <c r="N22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="O22" s="3">
         <v>2500</v>
@@ -1830,135 +1870,141 @@
         <v>2500</v>
       </c>
       <c r="R22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-110800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-37800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-25500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-16400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1978,32 +2024,32 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14500</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -2014,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-110700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-37600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-16400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-110700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-37600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-16400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,8 +2471,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
@@ -2428,12 +2489,12 @@
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,23 +2679,26 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2648,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
       </c>
       <c r="P32" s="3">
         <v>-400</v>
@@ -2660,11 +2730,11 @@
         <v>-400</v>
       </c>
       <c r="R32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2677,8 +2747,8 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2695,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-110700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-16400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-110700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-16400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,82 +3180,83 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E41" s="3">
         <v>53900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>146300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>131700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>102600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>85100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>109900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>54400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>93200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>105200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>49600</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
+      <c r="AA41" s="3">
+        <v>0</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>4</v>
@@ -3177,8 +3264,11 @@
       <c r="AC41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3207,32 +3297,32 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>55000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>65000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>69600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>79300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3242,8 +3332,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3260,61 +3350,64 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E43" s="3">
         <v>22400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3326,16 +3419,16 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>72600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3343,62 +3436,65 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E44" s="3">
         <v>18900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3408,8 +3504,8 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3426,174 +3522,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E46" s="3">
         <v>100800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>115900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>142900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>178800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>161900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>77700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>127600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>108000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>126100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>152200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>115800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>139100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>94300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>106100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>44600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>50100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>72800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3657,88 +3762,91 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
         <v>72000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>68600</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3800</v>
       </c>
       <c r="G48" s="3">
         <v>3800</v>
       </c>
       <c r="H48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3758,61 +3866,64 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E49" s="3">
         <v>69800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>70300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>70600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>71200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>71800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>72700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>73500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>74800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>79200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>80400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>81100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>77300</v>
       </c>
       <c r="U49" s="3">
         <v>77300</v>
@@ -3832,8 +3943,8 @@
       <c r="Z49" s="3">
         <v>77300</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
+      <c r="AA49" s="3">
+        <v>77300</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>4</v>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,28 +4124,31 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -4040,32 +4160,32 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1200</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
       </c>
       <c r="S52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -4073,25 +4193,28 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>200</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E54" s="3">
         <v>178000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>210900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>220700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>257500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>215200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>239900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>157200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>215800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>194500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>214200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>240400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>182700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>202800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>220900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>171800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>183400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>121900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>127400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>152200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>151000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>146100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4418,24 +4552,24 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>20000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>93500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4451,8 +4585,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4467,212 +4601,221 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>211300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>72000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>68600</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E59" s="3">
         <v>37600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>59600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E60" s="3">
         <v>46500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>57700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>180200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>212700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>73200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>69400</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E61" s="3">
         <v>71900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>71400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>71200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4680,135 +4823,138 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>40500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>133000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>92700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>92100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>91500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>90900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>90300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>89700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>134900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>122400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E62" s="3">
         <v>41100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>45100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>48200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>65300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>66200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>63800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>55600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15000</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>21300</v>
       </c>
       <c r="Z62" s="3">
         <v>21300</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
+      <c r="AA62" s="3">
+        <v>21300</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E66" s="3">
         <v>159500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>163500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>153400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>175600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>133700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>133900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>282000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>150900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>151500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>165600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>145600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>88400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>84000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>75400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>227800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>229500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>213100</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-512100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-497300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-484100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-463900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-440400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-422900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-404700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-385300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-369700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-376100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-265400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-253900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-232800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-213100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-198600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-171600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-134000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-123000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-110600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-98800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-82300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-75500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-78500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-73100</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>18500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>81900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-73000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>62600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>75400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>84400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>95000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>37900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-75500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-78500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-67000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-110700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-16400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,16 +6409,17 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>900</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
@@ -6235,16 +6434,16 @@
         <v>900</v>
       </c>
       <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1700</v>
       </c>
       <c r="N83" s="3">
         <v>1700</v>
@@ -6253,20 +6452,20 @@
         <v>1700</v>
       </c>
       <c r="P83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -6277,13 +6476,13 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>-200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>100</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-38200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-32100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-25100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-33200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,61 +7043,62 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,73 +7299,76 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>29300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>34400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>8200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-80000</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,108 +7761,114 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-800</v>
       </c>
       <c r="F100" s="3">
         <v>-800</v>
       </c>
       <c r="G100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>47900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>93800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-76800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>39800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>72700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>60400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>67400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>51800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>-100</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -7633,8 +7882,8 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>109600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-80400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>70800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-38800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>61600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>49600</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,184 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E8" s="3">
         <v>41700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2300</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +855,8 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -869,62 +873,65 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E9" s="3">
         <v>12100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,62 +962,65 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E10" s="3">
         <v>29600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>2700</v>
       </c>
       <c r="AC12" s="3">
         <v>2700</v>
       </c>
       <c r="AD12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AE12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,94 +1262,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1400</v>
       </c>
       <c r="K14" s="3">
         <v>1400</v>
       </c>
       <c r="L14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M14" s="3">
         <v>-23300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>91300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,10 +1363,10 @@
         <v>1200</v>
       </c>
       <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -1358,16 +1381,16 @@
         <v>900</v>
       </c>
       <c r="K15" s="3">
+        <v>900</v>
+      </c>
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1700</v>
       </c>
       <c r="O15" s="3">
         <v>1700</v>
@@ -1376,20 +1399,20 @@
         <v>1700</v>
       </c>
       <c r="Q15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>500</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1406,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="3">
         <v>100</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,148 +1472,152 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E17" s="3">
         <v>53800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>128600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>38300</v>
       </c>
       <c r="S17" s="3">
         <v>38300</v>
       </c>
       <c r="T17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="U17" s="3">
         <v>25300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-108000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-25100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-36000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1600,26 +1630,29 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,26 +1683,27 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1689,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>400</v>
       </c>
       <c r="Q20" s="3">
         <v>400</v>
@@ -1701,11 +1735,11 @@
         <v>400</v>
       </c>
       <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1718,8 +1752,8 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1736,62 +1770,65 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-106100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-23500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-34400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1804,64 +1841,67 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2800</v>
       </c>
       <c r="N22" s="3">
         <v>2800</v>
       </c>
       <c r="O22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="P22" s="3">
         <v>2500</v>
@@ -1873,129 +1913,135 @@
         <v>2500</v>
       </c>
       <c r="S22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
       </c>
       <c r="X22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>4</v>
+      <c r="AC22" s="3">
+        <v>0</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-110800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-37800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-25500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,11 +2049,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -2027,32 +2073,32 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14500</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -2063,11 +2109,11 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-110700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-37600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-16400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-110700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-37600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-16400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,8 +2535,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
@@ -2492,12 +2553,12 @@
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,26 +2749,29 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2721,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-400</v>
       </c>
       <c r="Q32" s="3">
         <v>-400</v>
@@ -2733,11 +2803,11 @@
         <v>-400</v>
       </c>
       <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2750,8 +2820,8 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-110700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-37600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-16400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-110700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-37600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-16400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,85 +3267,86 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E41" s="3">
         <v>31500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>146300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>131700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>102600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>85100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>109900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>54400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>93200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>105200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>49600</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
+      <c r="AB41" s="3">
+        <v>0</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>4</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3300,32 +3390,32 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>55000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>65000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>69600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>79300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3335,8 +3425,8 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3353,64 +3443,67 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3422,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>72600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
@@ -3439,65 +3532,68 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E44" s="3">
         <v>23400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3507,8 +3603,8 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3525,180 +3621,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E46" s="3">
         <v>84100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>115900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>178800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>161900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>77700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>127600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>108000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>126100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>152200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>95200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>139100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>94300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>106100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>44600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>50100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>72800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3765,91 +3870,94 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
         <v>72000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>68600</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3800</v>
       </c>
       <c r="H48" s="3">
         <v>3800</v>
       </c>
       <c r="I48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
@@ -3869,64 +3977,67 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E49" s="3">
         <v>69100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>69800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>70300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>71200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>71800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>72700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>73500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>74800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>79200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>80400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>81100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>80400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>80000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>77300</v>
       </c>
       <c r="V49" s="3">
         <v>77300</v>
@@ -3946,8 +4057,8 @@
       <c r="AA49" s="3">
         <v>77300</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
+      <c r="AB49" s="3">
+        <v>77300</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>4</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,31 +4244,34 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -4163,32 +4283,32 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1200</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
@@ -4196,25 +4316,28 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>200</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E54" s="3">
         <v>160200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>178000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>210900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>257500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>215200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>239900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>157200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>209100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>215800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>194500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>214200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>240400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>182700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>202800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>220900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>171800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>183400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>121900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>127400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>152200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>151000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>146100</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4555,24 +4689,24 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>20000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>93500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4588,8 +4722,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4604,221 +4738,230 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>211300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>72000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>68600</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E59" s="3">
         <v>30500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E60" s="3">
         <v>40700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>57700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>180200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>212700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>73200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>69400</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E61" s="3">
         <v>72000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>71500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>71400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>71200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4826,138 +4969,141 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>40500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>133000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>92700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>92100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>91500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>90900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>90300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>89700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16100</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>134900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>122400</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E62" s="3">
         <v>40600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>61300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>45100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>48800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>48200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>46500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>65300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>66200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>63800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>55600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15000</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>21300</v>
       </c>
       <c r="AA62" s="3">
         <v>21300</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
+      <c r="AB62" s="3">
+        <v>21300</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>4</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E66" s="3">
         <v>153300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>159500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>163500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>164100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>153400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>175600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>133700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>133900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>282000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>150900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>151500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>165600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>161600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>145600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>88400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>84000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>75400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>227800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>229500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>213100</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-530200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-512100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-497300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-484100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-463900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-440400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-422900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-404700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-385300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-369700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-376100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-265400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-253900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-232800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-213100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-198600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-171600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-134000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-123000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-110600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-98800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-82300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-75500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-78500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-73100</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>67200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-73000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>43600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>62600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>84400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>95000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-75500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-78500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-67000</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-110700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-37600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-16400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6419,10 +6618,10 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -6437,16 +6636,16 @@
         <v>900</v>
       </c>
       <c r="K83" s="3">
+        <v>900</v>
+      </c>
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1700</v>
       </c>
       <c r="O83" s="3">
         <v>1700</v>
@@ -6455,20 +6654,20 @@
         <v>1700</v>
       </c>
       <c r="Q83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -6479,13 +6678,13 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>-200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>200</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>100</v>
       </c>
       <c r="AB83" s="3">
         <v>100</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-32100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-25100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-33200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,64 +7264,65 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,76 +7529,79 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>19700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>29300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>34400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>8200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-80000</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-800</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
       </c>
       <c r="H100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>93800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>39800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>72700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>60400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>67400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>51800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,19 +8108,19 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>-100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -7885,8 +8134,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-39600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>109600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-80400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>70800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-38800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>61600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>49600</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>EOLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,191 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="3">
         <v>49300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2300</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,8 +862,8 @@
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -876,65 +880,68 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E9" s="3">
         <v>14700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,56 +984,56 @@
         <v>34600</v>
       </c>
       <c r="E10" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F10" s="3">
         <v>29600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>5600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1400</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>2700</v>
       </c>
       <c r="AD12" s="3">
         <v>2700</v>
       </c>
       <c r="AE12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AF12" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,111 +1282,117 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1400</v>
       </c>
       <c r="L14" s="3">
         <v>1400</v>
       </c>
       <c r="M14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N14" s="3">
         <v>-23300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>91300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-9900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>4</v>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="3">
         <v>1200</v>
       </c>
       <c r="F15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>900</v>
       </c>
       <c r="H15" s="3">
         <v>900</v>
@@ -1384,16 +1407,16 @@
         <v>900</v>
       </c>
       <c r="L15" s="3">
+        <v>900</v>
+      </c>
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1700</v>
       </c>
       <c r="P15" s="3">
         <v>1700</v>
@@ -1402,20 +1425,20 @@
         <v>1700</v>
       </c>
       <c r="R15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S15" s="3">
         <v>1500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>500</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1432,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="3">
         <v>100</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,154 +1499,158 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E17" s="3">
         <v>64500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>128600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>38300</v>
       </c>
       <c r="T17" s="3">
         <v>38300</v>
       </c>
       <c r="U17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="V17" s="3">
         <v>25300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-108000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-17400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-25100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-36000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1633,26 +1663,29 @@
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,29 +1717,30 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1726,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
       </c>
       <c r="R20" s="3">
         <v>400</v>
@@ -1738,11 +1772,11 @@
         <v>400</v>
       </c>
       <c r="T20" s="3">
+        <v>400</v>
+      </c>
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1755,8 +1789,8 @@
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1773,65 +1807,68 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-106100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-23500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-34400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1844,67 +1881,70 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-3600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2800</v>
       </c>
       <c r="O22" s="3">
         <v>2800</v>
       </c>
       <c r="P22" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q22" s="3">
         <v>2500</v>
@@ -1916,132 +1956,138 @@
         <v>2500</v>
       </c>
       <c r="T22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
       </c>
       <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
+      <c r="AD22" s="3">
+        <v>0</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-110800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-27100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-37800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-25500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2052,11 +2098,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -2076,32 +2122,32 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
       </c>
       <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14500</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -2112,11 +2158,11 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-110700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-27000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-37600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-110700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-27000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-37600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,8 +2599,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
@@ -2556,12 +2617,12 @@
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,29 +2819,32 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2794,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
       </c>
       <c r="R32" s="3">
         <v>-400</v>
@@ -2806,11 +2876,11 @@
         <v>-400</v>
       </c>
       <c r="T32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2823,8 +2893,8 @@
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-110700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-37600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-110700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-37600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,88 +3354,89 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E41" s="3">
         <v>41700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>146300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>131700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>102600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>85100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>109900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>54400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>93200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>105200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>49600</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
+      <c r="AC41" s="3">
+        <v>0</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>4</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3393,32 +3483,32 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>55000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>65000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>69600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>79300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3428,8 +3518,8 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3446,67 +3536,70 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E43" s="3">
         <v>29000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3518,16 +3611,16 @@
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>72600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
@@ -3535,68 +3628,71 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E44" s="3">
         <v>19900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3606,8 +3702,8 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3624,186 +3720,195 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E46" s="3">
         <v>96500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>84100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>115900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>142900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>178800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>138300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>161900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>77700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>127600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>108000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>126100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>152200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>95200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>115800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>139100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>94300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>106100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>44600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>50100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>72800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3873,94 +3978,97 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3">
         <v>72000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>68600</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3800</v>
       </c>
       <c r="I48" s="3">
         <v>3800</v>
       </c>
       <c r="J48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
@@ -3980,67 +4088,70 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E49" s="3">
         <v>68400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>69100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>69800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>70600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>71200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>71800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>72700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>73500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>74800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>78000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>79200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>80400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>80800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>81100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>80400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>80000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>77300</v>
       </c>
       <c r="W49" s="3">
         <v>77300</v>
@@ -4060,8 +4171,8 @@
       <c r="AB49" s="3">
         <v>77300</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
+      <c r="AC49" s="3">
+        <v>77300</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>4</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4256,25 +4376,25 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -4286,32 +4406,32 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1200</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
       </c>
       <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
@@ -4319,25 +4439,28 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>2100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>200</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E54" s="3">
         <v>169000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>160200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>178000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>192700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>210900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>257500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>215200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>239900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>157200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>209100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>215800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>194500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>214200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>240400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>182700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>202800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>220900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>171800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>183400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>121900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>127400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>152200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>151000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>146100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,136 +4710,140 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>20000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>93500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4725,8 +4859,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4741,230 +4875,239 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>211300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>72000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>68600</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E59" s="3">
         <v>33500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E60" s="3">
         <v>41300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>46500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>87600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>180200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>212700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>73200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>69400</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E61" s="3">
         <v>94800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>72000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>71700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>71500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>71400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>71200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4972,141 +5115,144 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>40500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>133000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>92700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>92100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>91500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>90900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>90300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>89700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>134900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>122400</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E62" s="3">
         <v>39800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>61300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>48800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>48200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>46500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>65300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>66200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>63800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>55600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15000</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>21300</v>
       </c>
       <c r="AB62" s="3">
         <v>21300</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
+      <c r="AC62" s="3">
+        <v>21300</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>4</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E66" s="3">
         <v>175900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>153300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>159500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>163500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>164100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>153400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>175600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>133700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>133900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>282000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>150900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>151500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>165600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>161600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>145600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>87500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>88400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>84000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>75400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>227800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>229500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>213100</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-547100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-530200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-512100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-497300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-484100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-463900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-440400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-422900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-404700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-385300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-369700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-376100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-265400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-253900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-232800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-213100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-198600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-171600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-134000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-123000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-110600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-98800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-82300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-75500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-78500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-73100</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>67200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-73000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>62600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>84400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>95000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>37900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>52000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-75500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-78500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-67000</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AE76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-110700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-37600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-16400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,22 +6807,23 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
@@ -6639,16 +6838,16 @@
         <v>900</v>
       </c>
       <c r="L83" s="3">
+        <v>900</v>
+      </c>
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1700</v>
       </c>
       <c r="P83" s="3">
         <v>1700</v>
@@ -6657,20 +6856,20 @@
         <v>1700</v>
       </c>
       <c r="R83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S83" s="3">
         <v>1500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -6681,13 +6880,13 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>-200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>200</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>100</v>
       </c>
       <c r="AC83" s="3">
         <v>100</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-33200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-19200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-5600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,67 +7485,68 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,79 +7759,82 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>19700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>29300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>14000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>34400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>8200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-80000</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>23800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-800</v>
       </c>
       <c r="H100" s="3">
         <v>-800</v>
       </c>
       <c r="I100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>93800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>39800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>72700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>60400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>67400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>51800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>5400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8111,19 +8360,19 @@
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>-100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -8137,8 +8386,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>109600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-80400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>70800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-38800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>61600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>49600</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
-        <v>0</v>
-      </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
